--- a/supplementary_data_tables/figure_worksheet_associations.xlsx
+++ b/supplementary_data_tables/figure_worksheet_associations.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Source Data Table 9</t>
   </si>
   <si>
-    <t xml:space="preserve">Figure 2A and D</t>
+    <t xml:space="preserve">Table 1, Figure 2A and D</t>
   </si>
   <si>
     <t xml:space="preserve">Source Data Table 10</t>
@@ -238,6 +238,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -259,6 +260,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,12 +305,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -438,284 +444,284 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
     </row>
